--- a/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841840_same_pivot.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_CHN_GBR_841840_same_pivot.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2883" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="88">
   <si>
     <t>month</t>
   </si>
@@ -554,6 +554,9 @@
   <si>
     <t>sqrt</t>
   </si>
+  <si>
+    <t>Min of value</t>
+  </si>
 </sst>
 </file>
 
@@ -8553,32 +8556,32 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:J27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <location ref="B3:K8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="20"/>
+        <item h="1" x="19"/>
+        <item h="1" x="21"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8602,34 +8605,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="22">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="9"/>
     </i>
@@ -8638,36 +8614,6 @@
     </i>
     <i>
       <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
     </i>
   </rowItems>
   <colFields count="2">
@@ -8707,10 +8653,10 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of value" fld="2" subtotal="average" baseField="0" baseItem="288582016"/>
+    <dataField name="Min of value" fld="2" subtotal="min" baseField="0" baseItem="9"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="1">
+    <conditionalFormat type="all" priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -8745,7 +8691,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat type="all" priority="2">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -15955,783 +15901,176 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J27"/>
+  <dimension ref="B3:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="10" width="7" customWidth="1"/>
-    <col min="11" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" customWidth="1"/>
+    <col min="10" max="11" width="6" customWidth="1"/>
+    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>79</v>
-      </c>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
       <c r="C5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.66500000000000004</v>
+        <v>75</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="2">
-        <v>0.64500000000000002</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D6" s="2">
-        <v>0.63960000000000006</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="E6" s="2">
-        <v>0.5262</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F6" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>0.51740000000000008</v>
+        <v>0.432</v>
       </c>
       <c r="H6" s="2">
-        <v>0.60319999999999996</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="I6" s="2">
-        <v>0.5875999999999999</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="J6" s="2">
-        <v>0.58739999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.63259999999999994</v>
+        <v>0.51</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>0.61499999999999999</v>
+        <v>0.622</v>
       </c>
       <c r="D7" s="2">
-        <v>0.61959999999999993</v>
+        <v>0.625</v>
       </c>
       <c r="E7" s="2">
-        <v>0.51539999999999997</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>0.50560000000000005</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="G7" s="2">
-        <v>0.48220000000000002</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="H7" s="2">
-        <v>0.58879999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="I7" s="2">
-        <v>0.5776</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="J7" s="2">
-        <v>0.56500000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.64319999999999999</v>
+        <v>0.54</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>0.63700000000000012</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="D8" s="2">
-        <v>0.63279999999999992</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E8" s="2">
-        <v>0.51600000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="F8" s="2">
-        <v>0.50319999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="G8" s="2">
-        <v>0.49220000000000008</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H8" s="2">
-        <v>0.59060000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="I8" s="2">
-        <v>0.56279999999999997</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="J8" s="2">
-        <v>0.56559999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.6734</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.6604000000000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.50940000000000007</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.501</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.501</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.58619999999999994</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.58360000000000001</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.58679999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.65880000000000005</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.62819999999999998</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.50060000000000004</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.48900000000000005</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.48579999999999995</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.56400000000000006</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.56140000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.64920000000000011</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.63080000000000003</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.62280000000000002</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.50299999999999989</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.48599999999999993</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.47640000000000005</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.5756</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.56440000000000001</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.56859999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.50159999999999993</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.45179999999999998</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.4466</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.39140000000000003</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.36079999999999995</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.46060000000000001</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.41339999999999993</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.41220000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.55740000000000001</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.55359999999999998</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.53580000000000005</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.41959999999999997</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.39980000000000004</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.38179999999999997</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.4798</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.47660000000000002</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.4582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.59439999999999993</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.57599999999999985</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.44379999999999997</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.43079999999999996</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.4274</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.52759999999999996</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.51140000000000008</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.50619999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.57319999999999993</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.58779999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.45220000000000005</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.43579999999999997</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.42220000000000002</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.51079999999999992</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.52279999999999993</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.63919999999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.63860000000000006</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.62019999999999997</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.495</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.4837999999999999</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.46840000000000004</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.55520000000000003</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.53439999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.67799999999999994</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.64540000000000008</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.62859999999999994</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.50340000000000007</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.47000000000000003</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.47059999999999996</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.59160000000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.55180000000000007</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.54780000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.66840000000000011</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.65340000000000009</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.61719999999999997</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.49980000000000002</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.47879999999999995</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.60539999999999994</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.53599999999999992</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.63760000000000006</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.62160000000000004</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.54120000000000013</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.49359999999999998</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.48900000000000005</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.62319999999999998</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.55580000000000007</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.55979999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.63979999999999992</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.56659999999999999</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.55499999999999994</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.44539999999999996</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.4264</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.53680000000000005</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.48359999999999992</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.48339999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.65980000000000005</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.62759999999999994</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.61760000000000004</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.50739999999999996</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.47640000000000005</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.46360000000000001</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.61159999999999992</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.55659999999999998</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.60539999999999994</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.54560000000000008</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.38360000000000005</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.38680000000000003</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.37679999999999997</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.48139999999999999</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.45579999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.51019999999999999</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.49960000000000004</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.49400000000000005</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.37300000000000005</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.33479999999999999</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.34159999999999996</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.43459999999999999</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.39740000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.52420000000000011</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.45360000000000006</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.44939999999999997</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.32840000000000003</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.31740000000000002</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.42639999999999995</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.36179999999999995</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.38140000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.41820000000000002</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.41480000000000006</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.32940000000000003</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.29179999999999995</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.2858</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.35859999999999997</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.34460000000000002</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.3448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.45860000000000001</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.45019999999999999</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.38260000000000005</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.34939999999999999</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.35019999999999996</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.40079999999999999</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.38039999999999996</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.3866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.53960000000000008</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.37819999999999998</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.36679999999999996</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.46020000000000005</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.46060000000000001</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.45120000000000005</v>
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.52600000000000002</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B6:J27">
+  <conditionalFormatting pivot="1" sqref="C6:K8">
     <cfRule type="top10" dxfId="0" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B6:J27">
+  <conditionalFormatting pivot="1" sqref="C6:K8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
